--- a/Deliverables/sprint-11/planning-documents.xlsx
+++ b/Deliverables/sprint-11/planning-documents.xlsx
@@ -1835,8 +1835,8 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="679285856"/>
-        <c:axId val="930034531"/>
+        <c:axId val="1835843301"/>
+        <c:axId val="283176980"/>
       </c:barChart>
       <c:lineChart>
         <c:varyColors val="0"/>
@@ -1874,11 +1874,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="679285856"/>
-        <c:axId val="930034531"/>
+        <c:axId val="1835843301"/>
+        <c:axId val="283176980"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="679285856"/>
+        <c:axId val="1835843301"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1930,10 +1930,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="930034531"/>
+        <c:crossAx val="283176980"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="930034531"/>
+        <c:axId val="283176980"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2008,7 +2008,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="679285856"/>
+        <c:crossAx val="1835843301"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2161,8 +2161,8 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1090752917"/>
-        <c:axId val="1495625961"/>
+        <c:axId val="529095448"/>
+        <c:axId val="50147874"/>
       </c:barChart>
       <c:lineChart>
         <c:varyColors val="0"/>
@@ -2197,11 +2197,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1090752917"/>
-        <c:axId val="1495625961"/>
+        <c:axId val="529095448"/>
+        <c:axId val="50147874"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1090752917"/>
+        <c:axId val="529095448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2253,10 +2253,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1495625961"/>
+        <c:crossAx val="50147874"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1495625961"/>
+        <c:axId val="50147874"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2331,7 +2331,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1090752917"/>
+        <c:crossAx val="529095448"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2484,8 +2484,8 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="344821262"/>
-        <c:axId val="2039922480"/>
+        <c:axId val="561577352"/>
+        <c:axId val="1115861512"/>
       </c:barChart>
       <c:lineChart>
         <c:varyColors val="0"/>
@@ -2520,11 +2520,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="344821262"/>
-        <c:axId val="2039922480"/>
+        <c:axId val="561577352"/>
+        <c:axId val="1115861512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="344821262"/>
+        <c:axId val="561577352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2576,10 +2576,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2039922480"/>
+        <c:crossAx val="1115861512"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2039922480"/>
+        <c:axId val="1115861512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2654,7 +2654,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="344821262"/>
+        <c:crossAx val="561577352"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -5096,7 +5096,7 @@
         <v>15</v>
       </c>
       <c r="E10" s="69">
-        <f t="shared" ref="E10:E18" si="2">E9-D9</f>
+        <f t="shared" ref="E10:E19" si="2">E9-D9</f>
         <v>214</v>
       </c>
       <c r="F10" s="68">
@@ -5327,6 +5327,10 @@
       <c r="D19" s="100">
         <f>SUM(D109:D112)</f>
         <v>21</v>
+      </c>
+      <c r="E19" s="100">
+        <f t="shared" si="2"/>
+        <v>53</v>
       </c>
       <c r="G19" s="59"/>
     </row>
@@ -6453,7 +6457,9 @@
       <c r="F97" s="90">
         <v>0.0</v>
       </c>
-      <c r="G97" s="77"/>
+      <c r="G97" s="90">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="92">
